--- a/xlsx/海国图志_intext.xlsx
+++ b/xlsx/海国图志_intext.xlsx
@@ -29,13 +29,13 @@
     <t>魏源 (清朝)</t>
   </si>
   <si>
-    <t>政策_政策_美國_海国图志</t>
+    <t>政策_政策_美国_海国图志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%87</t>
   </si>
   <si>
-    <t>漢文</t>
+    <t>汉文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>口號</t>
+    <t>口号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%88%99%E5%BE%90</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%B2%BB%E7%B6%AD%E6%96%B0</t>
   </si>
   <si>
-    <t>明治維新</t>
+    <t>明治维新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%9A%87</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%AA%E5%A3%AB%E9%90%B8</t>
   </si>
   <si>
-    <t>汪士鐸</t>
+    <t>汪士铎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%88%E6%BE%A7</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E5%BE%B7%E5%89%9B</t>
   </si>
   <si>
-    <t>唐德剛</t>
+    <t>唐德刚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%93%E6%9E%97</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E6%88%B6%E5%B9%95%E5%BA%9C</t>
   </si>
   <si>
-    <t>江戶幕府</t>
+    <t>江户幕府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%9D%89%E6%99%8B%E4%BD%9C</t>
